--- a/biology/Mycologie/Termitomyces_titanicus/Termitomyces_titanicus.xlsx
+++ b/biology/Mycologie/Termitomyces_titanicus/Termitomyces_titanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Termitomyces titanicus est une espèce de champignons de la famille des Lyophyllaceae. 
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'un des plus grands sporophores connus, dont l'hyménophore atteint le mètre de diamètre. 
-Ces champignons poussent en Afrique de l'Ouest, en symbiose avec les termites, qui les cultivent sur leurs pelotes de déjections et forment des « fungus comb », pour les consommer ensuite[2],[3].
-Cette espèce a été décrite pour la première fois en 1980 par David Norman Pegler (né en 1938) et Graham D. Piearce (fl. 1980)[4].
+Ces champignons poussent en Afrique de l'Ouest, en symbiose avec les termites, qui les cultivent sur leurs pelotes de déjections et forment des « fungus comb », pour les consommer ensuite,.
+Cette espèce a été décrite pour la première fois en 1980 par David Norman Pegler (né en 1938) et Graham D. Piearce (fl. 1980).
 			Termitomyces titanicus est le plus grand champignon comestible connu.
 </t>
         </is>
